--- a/sales_data.xlsx
+++ b/sales_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sayali\Job Applications\UpTrail Internship\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B7D1E-3909-416A-ABB3-5BF3E97A9101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -220,8 +226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +290,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +342,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -362,6 +376,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,9 +411,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,14 +587,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -639,7 +660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -671,7 +692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -703,7 +724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -735,7 +756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -767,7 +788,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -799,7 +820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -831,7 +852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -863,7 +884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -895,7 +916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -927,7 +948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -959,7 +980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -991,7 +1012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1023,7 +1044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1055,7 +1076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -1119,7 +1140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -1151,7 +1172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -1183,7 +1204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1215,7 +1236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1020</v>
       </c>
